--- a/munkanaplo/munkanapló_hengikft.xlsx
+++ b/munkanaplo/munkanapló_hengikft.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>Hengi kft munkanapló</t>
   </si>
@@ -84,16 +84,10 @@
     <t>Tóth Róbert</t>
   </si>
   <si>
-    <t>meddig jutottunk</t>
-  </si>
-  <si>
-    <t>problémák amik fent állnak</t>
-  </si>
-  <si>
-    <t>háttér,logó</t>
-  </si>
-  <si>
-    <t>részletes munkabeszámoló</t>
+    <t>Hétvégi saját munka</t>
+  </si>
+  <si>
+    <t>sok hiba jővőhét vasárnap javítás</t>
   </si>
 </sst>
 </file>
@@ -138,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -156,6 +150,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -439,13 +434,13 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.85546875" bestFit="1" customWidth="1"/>
@@ -637,11 +632,21 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7">
+        <v>44975</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -652,20 +657,22 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C9" s="7">
+        <v>44978</v>
+      </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>

--- a/munkanaplo/munkanapló_hengikft.xlsx
+++ b/munkanaplo/munkanapló_hengikft.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
   <si>
     <t>Hengi kft munkanapló</t>
   </si>
@@ -88,6 +88,27 @@
   </si>
   <si>
     <t>sok hiba jővőhét vasárnap javítás</t>
+  </si>
+  <si>
+    <t>Robi hétvégi feladat</t>
+  </si>
+  <si>
+    <t>r.h.f. javítás</t>
+  </si>
+  <si>
+    <t>Elérhetőseg</t>
+  </si>
+  <si>
+    <t>Hiányos</t>
+  </si>
+  <si>
+    <t>Reszponzívitás</t>
+  </si>
+  <si>
+    <t>Valahol jó, valahol nem</t>
+  </si>
+  <si>
+    <t>Nav bar javítás</t>
   </si>
 </sst>
 </file>
@@ -434,7 +455,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +689,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>14</v>
@@ -684,11 +705,21 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7">
+        <v>44983</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -700,11 +731,21 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="7">
+        <v>44984</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -716,11 +757,21 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="7">
+        <v>44984</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -732,11 +783,21 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7">
+        <v>44984</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -748,11 +809,21 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7">
+        <v>44984</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>

--- a/munkanaplo/munkanapló_hengikft.xlsx
+++ b/munkanaplo/munkanapló_hengikft.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282B8068-7412-40F2-BFA6-9E741455C10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>Hengi kft munkanapló</t>
   </si>
@@ -109,12 +110,15 @@
   </si>
   <si>
     <t>Nav bar javítás</t>
+  </si>
+  <si>
+    <t>PPt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,25 +157,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -451,11 +448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,531 +464,269 @@
     <col min="6" max="6" width="55.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>44963</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>44970</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>44971</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>44975</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>44978</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>44983</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>44984</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>44984</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>44984</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>44984</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="4">
+        <v>44985</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/munkanaplo/munkanapló_hengikft.xlsx
+++ b/munkanaplo/munkanapló_hengikft.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282B8068-7412-40F2-BFA6-9E741455C10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0634B426-5823-44CC-9CC2-6416A2287111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
   <si>
     <t>Hengi kft munkanapló</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>PPt</t>
+  </si>
+  <si>
+    <t>Képek beillesztése</t>
+  </si>
+  <si>
+    <t>Képek reszponzivitása</t>
+  </si>
+  <si>
+    <t>Képekhez szöveg</t>
+  </si>
+  <si>
+    <t>Kabai Zsombor, Németh István</t>
   </si>
 </sst>
 </file>
@@ -449,17 +461,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -728,6 +740,74 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4">
+        <v>44991</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="4">
+        <v>44991</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4">
+        <v>44991</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4">
+        <v>44992</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/munkanaplo/munkanapló_hengikft.xlsx
+++ b/munkanaplo/munkanapló_hengikft.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0634B426-5823-44CC-9CC2-6416A2287111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
   <si>
     <t>Hengi kft munkanapló</t>
   </si>
@@ -125,12 +124,18 @@
   </si>
   <si>
     <t>Kabai Zsombor, Németh István</t>
+  </si>
+  <si>
+    <t>Elérhetőseg oldal keszítése</t>
+  </si>
+  <si>
+    <t>Javítások</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,17 +465,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.85546875" bestFit="1" customWidth="1"/>
@@ -544,7 +549,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -598,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -806,6 +811,57 @@
       </c>
       <c r="F19" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="4">
+        <v>44998</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="4">
+        <v>44998</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4">
+        <v>44999</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/munkanaplo/munkanapló_hengikft.xlsx
+++ b/munkanaplo/munkanapló_hengikft.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0729C95A-2437-4E59-A9B6-85602E24C670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
   <si>
     <t>Hengi kft munkanapló</t>
   </si>
@@ -130,12 +131,24 @@
   </si>
   <si>
     <t>Javítások</t>
+  </si>
+  <si>
+    <t>Minden aluldal elkíszítése</t>
+  </si>
+  <si>
+    <t>Minden css elkíszítése</t>
+  </si>
+  <si>
+    <t>Tudj meg tölet rólunk</t>
+  </si>
+  <si>
+    <t>Aloldalak kinézete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,11 +478,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,6 +877,74 @@
         <v>9</v>
       </c>
     </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="4">
+        <v>44999</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="4">
+        <v>44999</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="4">
+        <v>44999</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4">
+        <v>44999</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/munkanaplo/munkanapló_hengikft.xlsx
+++ b/munkanaplo/munkanapló_hengikft.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0729C95A-2437-4E59-A9B6-85602E24C670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAA8076-8D69-43E1-AFD8-8B740E9252AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="45">
   <si>
     <t>Hengi kft munkanapló</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Javítások</t>
   </si>
   <si>
-    <t>Minden aluldal elkíszítése</t>
-  </si>
-  <si>
     <t>Minden css elkíszítése</t>
   </si>
   <si>
@@ -143,6 +140,21 @@
   </si>
   <si>
     <t>Aloldalak kinézete</t>
+  </si>
+  <si>
+    <t>Alodalak</t>
+  </si>
+  <si>
+    <t>Minden aloldal elkíszítése</t>
+  </si>
+  <si>
+    <t>Szöveg beillesztése</t>
+  </si>
+  <si>
+    <t>Lelki támasz</t>
+  </si>
+  <si>
+    <t>Szeretjük</t>
   </si>
 </sst>
 </file>
@@ -479,22 +491,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -514,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -532,7 +544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -550,7 +562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -568,7 +580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -580,13 +592,13 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -598,13 +610,13 @@
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>19</v>
@@ -622,7 +634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
@@ -639,7 +651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -656,7 +668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -673,7 +685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
@@ -690,7 +702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -701,13 +713,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
@@ -724,7 +736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
@@ -741,7 +753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
@@ -758,7 +770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
@@ -775,7 +787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
@@ -792,7 +804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
@@ -809,7 +821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
@@ -826,7 +838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
@@ -837,13 +849,13 @@
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
@@ -854,13 +866,13 @@
         <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
@@ -871,15 +883,15 @@
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C23" s="4">
         <v>44999</v>
@@ -894,9 +906,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="4">
         <v>44999</v>
@@ -911,9 +923,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="4">
         <v>44999</v>
@@ -928,9 +940,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="4">
         <v>44999</v>
@@ -939,10 +951,61 @@
         <v>18</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="4">
+        <v>45005</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="4">
+        <v>45005</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="4">
+        <v>45005</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
